--- a/Win10_Pro-Default_files_directories.xlsx
+++ b/Win10_Pro-Default_files_directories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flakes/code/OS-defaults_research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1422A10-9E2F-4542-8580-5F1E48C3484A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFF18A2-EDF3-EF45-A23F-C2F41F7E6CF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33920" yWindow="6320" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{527565E3-21E6-9B4D-B85E-635D2894B5D6}"/>
+    <workbookView xWindow="-39760" yWindow="7260" windowWidth="28040" windowHeight="17440" xr2:uid="{527565E3-21E6-9B4D-B85E-635D2894B5D6}"/>
   </bookViews>
   <sheets>
     <sheet name="System drive default dirs" sheetId="5" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="242">
   <si>
     <t>bfsvc.exe</t>
   </si>
@@ -758,9 +758,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>bootmgr</t>
@@ -1144,7 +1141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6238415A-3800-E740-B4D0-971B750DB4C5}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
@@ -1248,7 +1245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26800F26-EFDA-9440-BBA0-9E5DFC5A5D62}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
@@ -1268,7 +1265,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
         <v>236</v>
@@ -1276,7 +1273,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
         <v>236</v>
@@ -1284,7 +1281,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
         <v>236</v>
@@ -1292,7 +1289,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s">
         <v>236</v>
@@ -1300,7 +1297,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B6" t="s">
         <v>236</v>
@@ -1451,8 +1448,8 @@
   <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1637,7 +1634,7 @@
         <v>233</v>
       </c>
       <c r="B33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1885,7 +1882,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Win10_Pro-Default_files_directories.xlsx
+++ b/Win10_Pro-Default_files_directories.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flakes/code/OS-defaults_research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFF18A2-EDF3-EF45-A23F-C2F41F7E6CF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FBA3B8-C622-DC47-AD7C-5021A73C1670}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39760" yWindow="7260" windowWidth="28040" windowHeight="17440" xr2:uid="{527565E3-21E6-9B4D-B85E-635D2894B5D6}"/>
+    <workbookView xWindow="-44740" yWindow="5960" windowWidth="35780" windowHeight="19380" activeTab="5" xr2:uid="{527565E3-21E6-9B4D-B85E-635D2894B5D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="System drive default dirs" sheetId="5" r:id="rId1"/>
-    <sheet name="System drive default files" sheetId="6" r:id="rId2"/>
-    <sheet name="Windows dir default files" sheetId="1" r:id="rId3"/>
-    <sheet name="Windows dir default sub dirs" sheetId="2" r:id="rId4"/>
-    <sheet name="System32 default sub dirs" sheetId="3" r:id="rId5"/>
-    <sheet name="SysWOW64 default sub dirs" sheetId="4" r:id="rId6"/>
+    <sheet name="System drive root" sheetId="5" r:id="rId1"/>
+    <sheet name="Windows" sheetId="1" r:id="rId2"/>
+    <sheet name="System32" sheetId="3" r:id="rId3"/>
+    <sheet name="SysWOW64" sheetId="4" r:id="rId4"/>
+    <sheet name="User Public root directory" sheetId="9" r:id="rId5"/>
+    <sheet name="User root dir" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'System drive default dirs'!$A$1:$B$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'System drive default files'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'System32 default sub dirs'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'SysWOW64 default sub dirs'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Windows dir default files'!$A$1:$B$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Windows dir default sub dirs'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'System drive root'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">System32!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SysWOW64!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'User Public root directory'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'User root dir'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Windows!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="278">
   <si>
     <t>bfsvc.exe</t>
   </si>
@@ -773,6 +773,114 @@
   </si>
   <si>
     <t>swapfile.sys</t>
+  </si>
+  <si>
+    <t>NTUSER.DAT</t>
+  </si>
+  <si>
+    <t>ntuser.dat.LOG1</t>
+  </si>
+  <si>
+    <t>ntuser.dat.LOG2</t>
+  </si>
+  <si>
+    <t>NTUSER.DAT{53b39e80-18c4-11ea-a811-000d3aa4692b}.TM.blf</t>
+  </si>
+  <si>
+    <t>NTUSER.DAT{53b39e80-18c4-11ea-a811-000d3aa4692b}.TMContainer00000000000000000001.regtrans-ms</t>
+  </si>
+  <si>
+    <t>NTUSER.DAT{53b39e80-18c4-11ea-a811-000d3aa4692b}.TMContainer00000000000000000002.regtrans-ms</t>
+  </si>
+  <si>
+    <t>ntuser.ini</t>
+  </si>
+  <si>
+    <t>AppData</t>
+  </si>
+  <si>
+    <t>Application Data</t>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <t>Local Settings</t>
+  </si>
+  <si>
+    <t>My Documents</t>
+  </si>
+  <si>
+    <t>NetHood</t>
+  </si>
+  <si>
+    <t>PrintHood</t>
+  </si>
+  <si>
+    <t>Recent</t>
+  </si>
+  <si>
+    <t>SendTo</t>
+  </si>
+  <si>
+    <t>Start Menu</t>
+  </si>
+  <si>
+    <t>Templates</t>
+  </si>
+  <si>
+    <t>3D Objects</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>Documents</t>
+  </si>
+  <si>
+    <t>Downloads</t>
+  </si>
+  <si>
+    <t>Favorites</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>OneDrive</t>
+  </si>
+  <si>
+    <t>Pictures</t>
+  </si>
+  <si>
+    <t>Saved Games</t>
+  </si>
+  <si>
+    <t>Searches</t>
+  </si>
+  <si>
+    <t>Videos</t>
+  </si>
+  <si>
+    <t>AccountPictures</t>
+  </si>
+  <si>
+    <t>Libraries</t>
+  </si>
+  <si>
+    <t>Directories</t>
+  </si>
+  <si>
+    <t>Files</t>
+  </si>
+  <si>
+    <t>desktop.ini</t>
   </si>
 </sst>
 </file>
@@ -796,12 +904,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -816,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -825,6 +939,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1139,744 +1254,673 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6238415A-3800-E740-B4D0-971B750DB4C5}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>225</v>
       </c>
-      <c r="B2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>226</v>
       </c>
-      <c r="B3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>227</v>
       </c>
-      <c r="B4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>228</v>
       </c>
-      <c r="B8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>176</v>
       </c>
-      <c r="B9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>229</v>
       </c>
-      <c r="B10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>224</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B12" xr:uid="{262A7783-3F18-EA44-B5C2-AFA4D1FCCFD2}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A12">
-    <sortCondition ref="A2:A12"/>
+  <autoFilter ref="A2:E2" xr:uid="{CE5E8AB8-A4C5-2049-B693-5F91E0452F2B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A13">
+    <sortCondition ref="A3:A13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26800F26-EFDA-9440-BBA0-9E5DFC5A5D62}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525D3750-91F0-2C4F-ADA5-5C811636FB0F}">
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>232</v>
+      </c>
+      <c r="B32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{32E4A6EF-7385-F74E-B037-09006352A081}"/>
+  <autoFilter ref="A2:E2" xr:uid="{31424840-70C5-5F45-8725-8FCB12C3E3C7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A22">
+    <sortCondition ref="A3:A22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525D3750-91F0-2C4F-ADA5-5C811636FB0F}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>234</v>
-      </c>
-      <c r="B18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B21" xr:uid="{A2C4B97A-4CA8-F24D-9F58-910E0EDC390F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A21">
-    <sortCondition ref="A2:A21"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB37E47-123D-4148-800E-B56A7E33A0AB}">
-  <dimension ref="A1:B79"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>231</v>
-      </c>
-      <c r="B20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>232</v>
-      </c>
-      <c r="B31" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{B2A037A2-890D-7F4F-80AD-00B39DBC690D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A79">
-    <sortCondition ref="A31:A79"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605635B6-2747-8D43-A5F0-68C502D8C5A1}">
   <dimension ref="A1:B131"/>
   <sheetViews>
@@ -2557,13 +2601,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A797885A-20F0-BA46-99B7-20D72E6E19CC}">
   <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3071,4 +3115,339 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634EC724-452A-854F-A7DE-14A8A6E116CD}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.1640625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:E2" xr:uid="{E06354D5-D584-1841-A42E-EA78D4DE2543}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B334801B-E0C2-A64F-85C7-825919D69D79}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="91.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>258</v>
+      </c>
+      <c r="B24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>259</v>
+      </c>
+      <c r="B25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:E2" xr:uid="{F6599998-5D84-2B4D-AC4D-658D3F968770}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Win10_Pro-Default_files_directories.xlsx
+++ b/Win10_Pro-Default_files_directories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flakes/code/OS-defaults_research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FBA3B8-C622-DC47-AD7C-5021A73C1670}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E1CC5B-9A7D-2142-9502-2BD84753BFC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-44740" yWindow="5960" windowWidth="35780" windowHeight="19380" activeTab="5" xr2:uid="{527565E3-21E6-9B4D-B85E-635D2894B5D6}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Windows" sheetId="1" r:id="rId2"/>
     <sheet name="System32" sheetId="3" r:id="rId3"/>
     <sheet name="SysWOW64" sheetId="4" r:id="rId4"/>
-    <sheet name="User Public root directory" sheetId="9" r:id="rId5"/>
+    <sheet name="User Public root" sheetId="9" r:id="rId5"/>
     <sheet name="User root dir" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'System drive root'!$A$2:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">System32!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SysWOW64!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'User Public root directory'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'User Public root'!$A$2:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'User root dir'!$A$2:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Windows!$A$2:$E$2</definedName>
   </definedNames>
@@ -3122,7 +3122,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3219,7 +3219,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
